--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.0.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,6 +25,7 @@
     <sheet name="Availability Combo" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Numero De Puertas" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Ejecucion Sombra" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Ejecucion Sombra Prerequisite" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
@@ -77,6 +78,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -88,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="428">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1021,6 +1030,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ejecucion Sombra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecución Sombra</t>
   </si>
   <si>
     <t xml:space="preserve">¿El cliente cumple con Respeto a enfriador al 100% y hay 1 frente de "SKU Competencia"? ¿Hay 3 o más frentes "Empaque KO definido"? ¿Hay "comunicación específica"?</t>
@@ -1805,6 +1817,9 @@
     <t xml:space="preserve">Cattman Assortment</t>
   </si>
   <si>
+    <t xml:space="preserve">availability</t>
+  </si>
+  <si>
     <t xml:space="preserve">RETORNABILIDAD</t>
   </si>
   <si>
@@ -1826,18 +1841,12 @@
     <t xml:space="preserve">Ciel_NR_600_ml:2,Ciel_Natural_NR_1_L:2,Ciel_NR_1.5_L:2</t>
   </si>
   <si>
-    <t xml:space="preserve">Penalización Delaware</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delaware_Punch_NR_600_ml:1</t>
   </si>
   <si>
     <t xml:space="preserve">If there are 4 or more coke doors then 1 of these bays needs 100% purity of Retornables</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=4</t>
-  </si>
-  <si>
     <t xml:space="preserve">additional_attribute_2</t>
   </si>
   <si>
@@ -1964,10 +1973,16 @@
     <t xml:space="preserve">Count of Bay</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
+    <t xml:space="preserve">scene type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecución sombra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
   </si>
   <si>
     <t xml:space="preserve">minimum_Competition_SKU_facings_required</t>
@@ -1980,9 +1995,6 @@
   </si>
   <si>
     <t xml:space="preserve">minimum_POS_facings_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejecución sombra</t>
   </si>
   <si>
     <t xml:space="preserve">RED COLA</t>
@@ -2548,6 +2560,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2809,10 +2825,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2899,32 +2911,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L93"/>
+  <dimension ref="1:93"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.036437246964"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="159.072874493927"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1023" min="12" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2962,7 +2973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2989,8 +3000,9 @@
         <v>15</v>
       </c>
       <c r="L2" s="7"/>
-    </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -3012,8 +3024,9 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3040,7 +3053,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3067,7 +3080,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3094,7 +3107,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3121,7 +3134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3148,7 +3161,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3175,7 +3188,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3202,7 +3215,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3227,7 +3240,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3281,7 +3294,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3312,7 +3325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
@@ -3339,7 +3352,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3366,7 +3379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3393,7 +3406,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3420,7 +3433,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3445,7 +3458,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3470,7 +3483,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3495,7 +3508,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3520,7 +3533,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3545,7 +3558,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3570,7 +3583,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3597,7 +3610,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3620,7 +3633,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3647,7 +3660,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3676,7 +3689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3703,7 +3716,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3730,7 +3743,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -3753,7 +3766,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3780,7 +3793,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3809,7 +3822,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3838,7 +3851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3867,7 +3880,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3896,7 +3909,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -3921,7 +3934,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3950,7 +3963,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3979,7 +3992,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -4012,7 +4025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4043,7 +4056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -4076,7 +4089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4099,7 +4112,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>39</v>
       </c>
@@ -4157,7 +4170,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>39</v>
       </c>
@@ -4184,7 +4197,7 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>39</v>
       </c>
@@ -4211,7 +4224,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>39</v>
       </c>
@@ -4238,7 +4251,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>40</v>
       </c>
@@ -4265,7 +4278,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>41</v>
       </c>
@@ -4292,7 +4305,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>42</v>
       </c>
@@ -4319,7 +4332,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>43</v>
       </c>
@@ -4346,7 +4359,7 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>44</v>
       </c>
@@ -4373,7 +4386,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>45</v>
       </c>
@@ -4400,7 +4413,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>45</v>
       </c>
@@ -4427,7 +4440,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>45</v>
       </c>
@@ -4454,7 +4467,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>45</v>
       </c>
@@ -4481,7 +4494,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>46</v>
       </c>
@@ -4508,7 +4521,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>47</v>
       </c>
@@ -4535,7 +4548,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>48</v>
       </c>
@@ -4562,7 +4575,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>49</v>
       </c>
@@ -4589,7 +4602,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>50</v>
       </c>
@@ -4616,7 +4629,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>51</v>
       </c>
@@ -4645,7 +4658,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>51</v>
       </c>
@@ -4674,7 +4687,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>52</v>
       </c>
@@ -4701,7 +4714,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>53</v>
       </c>
@@ -4728,7 +4741,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>54</v>
       </c>
@@ -4755,7 +4768,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>55</v>
       </c>
@@ -4782,7 +4795,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>56</v>
       </c>
@@ -4809,7 +4822,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>57</v>
       </c>
@@ -4836,7 +4849,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>57</v>
       </c>
@@ -4863,7 +4876,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>58</v>
       </c>
@@ -4890,7 +4903,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>59</v>
       </c>
@@ -4917,7 +4930,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>60</v>
       </c>
@@ -4944,7 +4957,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>61</v>
       </c>
@@ -4971,7 +4984,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>62</v>
       </c>
@@ -4998,7 +5011,7 @@
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" s="30" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>63</v>
       </c>
@@ -5020,8 +5033,9 @@
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
-    </row>
-    <row r="78" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>64</v>
       </c>
@@ -5044,7 +5058,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>65</v>
       </c>
@@ -5073,7 +5087,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>66</v>
       </c>
@@ -5102,7 +5116,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>67</v>
       </c>
@@ -5131,7 +5145,7 @@
       </c>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>68</v>
       </c>
@@ -5160,7 +5174,7 @@
       </c>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>69</v>
       </c>
@@ -5193,7 +5207,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>70</v>
       </c>
@@ -5216,7 +5230,7 @@
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>71</v>
       </c>
@@ -5245,7 +5259,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>72</v>
       </c>
@@ -5274,7 +5288,7 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" s="35" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="35" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>73</v>
       </c>
@@ -5298,8 +5312,9 @@
       <c r="I87" s="5"/>
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
-    </row>
-    <row r="88" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>74</v>
       </c>
@@ -5328,7 +5343,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>75</v>
       </c>
@@ -5357,7 +5372,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>76</v>
       </c>
@@ -5370,23 +5385,25 @@
       <c r="D90" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F90" s="24"/>
+      <c r="E90" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>209</v>
+      </c>
       <c r="G90" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>208</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>77</v>
       </c>
@@ -5411,7 +5428,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>78</v>
       </c>
@@ -5436,18 +5453,18 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
         <v>79</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="C93" s="36" t="n">
+      <c r="C93" s="37" t="n">
         <v>1.1</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D93" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="37"/>
+      <c r="E93" s="38"/>
       <c r="F93" s="24"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
@@ -5458,13 +5475,7 @@
       <c r="K93" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K93">
-    <filterColumn colId="7">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Availability"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K93"/>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -5487,45 +5498,45 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="E90 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1021" min="9" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="76" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5533,19 +5544,19 @@
       <c r="A2" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>133</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -5559,19 +5570,19 @@
       <c r="A3" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="77" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -5585,19 +5596,19 @@
       <c r="A4" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="77" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -5611,19 +5622,19 @@
       <c r="A5" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="77" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -5637,20 +5648,20 @@
       <c r="A6" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="78" t="s">
-        <v>346</v>
+      <c r="F6" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>156</v>
@@ -5663,20 +5674,20 @@
       <c r="A7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="78" t="s">
-        <v>346</v>
+      <c r="F7" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>156</v>
@@ -5689,20 +5700,20 @@
       <c r="A8" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>346</v>
+      <c r="F8" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>157</v>
@@ -5715,20 +5726,20 @@
       <c r="A9" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="78" t="s">
-        <v>346</v>
+      <c r="F9" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>157</v>
@@ -5741,20 +5752,20 @@
       <c r="A10" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="78" t="s">
-        <v>346</v>
+      <c r="F10" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>157</v>
@@ -5767,20 +5778,20 @@
       <c r="A11" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="78" t="s">
-        <v>346</v>
+      <c r="F11" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>157</v>
@@ -5793,20 +5804,20 @@
       <c r="A12" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="80" t="s">
-        <v>347</v>
+      <c r="F12" s="81" t="s">
+        <v>348</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>138</v>
@@ -5819,20 +5830,20 @@
       <c r="A13" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="25" t="n">
         <v>2.5</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="80" t="s">
-        <v>347</v>
+      <c r="F13" s="81" t="s">
+        <v>348</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>138</v>
@@ -5859,22 +5870,22 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="E90 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="58" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="58" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="58" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="58" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="58" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="58" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="58" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="58" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1017" min="12" style="58" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -5897,30 +5908,30 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="82" t="s">
+      <c r="G1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="83" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="n">
+      <c r="A2" s="69" t="n">
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="56" t="n">
+      <c r="C2" s="57" t="n">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -5929,31 +5940,31 @@
       <c r="E2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>236</v>
+      <c r="G2" s="85" t="s">
+        <v>237</v>
       </c>
       <c r="H2" s="0"/>
-      <c r="I2" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>351</v>
+      <c r="I2" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>352</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="n">
+      <c r="A3" s="69" t="n">
         <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56" t="n">
+      <c r="C3" s="57" t="n">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -5962,21 +5973,21 @@
       <c r="E3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>353</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5995,65 +6006,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E90 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="86" t="s">
-        <v>356</v>
+      <c r="G1" s="87" t="s">
+        <v>357</v>
       </c>
       <c r="H1" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="I1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="I1" s="88" t="s">
         <v>359</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="J1" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="K1" s="88" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="88" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>71</v>
       </c>
@@ -6072,21 +6086,24 @@
       <c r="F2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>199</v>
@@ -6100,16 +6117,19 @@
       <c r="F3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>74</v>
       </c>
@@ -6120,7 +6140,7 @@
         <v>203</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>196</v>
@@ -6128,20 +6148,21 @@
       <c r="F4" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="G4" s="24"/>
       <c r="H4" s="5" t="s">
-        <v>366</v>
+        <v>222</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>75</v>
       </c>
@@ -6160,14 +6181,15 @@
       <c r="F5" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="51" t="n">
+      <c r="M5" s="52" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6189,22 +6211,22 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="E90 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.2024291497976"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="116.761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -6249,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6359,7 +6381,7 @@
       <c r="D5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="16" t="s">
         <v>14</v>
       </c>
@@ -6581,17 +6603,17 @@
       <c r="C12" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="77" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="77" t="s">
         <v>382</v>
       </c>
       <c r="I12" s="29"/>
@@ -6610,17 +6632,17 @@
       <c r="C13" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="77" t="s">
         <v>177</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="77" t="s">
         <v>382</v>
       </c>
       <c r="I13" s="29"/>
@@ -6630,31 +6652,31 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="88" t="n">
+      <c r="A14" s="89" t="n">
         <v>79</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90" t="n">
+      <c r="B14" s="90"/>
+      <c r="C14" s="91" t="n">
         <v>110</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="93" t="s">
         <v>382</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6675,7 +6697,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="E90 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6685,98 +6707,98 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="M1" s="39" t="s">
+      <c r="K1" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="94" t="n">
+      <c r="A2" s="95" t="n">
         <v>35</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="97" t="s">
         <v>389</v>
       </c>
-      <c r="G2" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="96" t="s">
+      <c r="G2" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="L2" s="98" t="s">
+      <c r="H2" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="M2" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="99" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6798,20 +6820,20 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E90 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2753036437247"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="68.3400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6832,7 +6854,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>392</v>
@@ -6897,10 +6919,10 @@
         <v>404</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>22</v>
@@ -6928,15 +6950,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E90 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.49797570850202"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6951,7 +6973,7 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -6961,10 +6983,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -6974,26 +6996,26 @@
       <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="G2" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="77" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7016,398 +7038,176 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E90 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="58.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+    <row r="1" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="101" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="102"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="101" t="s">
-        <v>411</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>413</v>
-      </c>
-      <c r="I1" s="101" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>416</v>
-      </c>
-      <c r="E2" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>417</v>
-      </c>
-      <c r="G2" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="102" t="s">
-        <v>418</v>
-      </c>
-      <c r="I2" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>420</v>
-      </c>
-      <c r="G3" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="I3" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>422</v>
-      </c>
-      <c r="E4" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>423</v>
-      </c>
-      <c r="G4" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="G5" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="102" t="s">
-        <v>426</v>
-      </c>
-      <c r="I5" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>416</v>
-      </c>
-      <c r="E6" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>417</v>
-      </c>
-      <c r="G6" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>418</v>
-      </c>
-      <c r="I6" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>420</v>
-      </c>
-      <c r="G7" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="I7" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>423</v>
-      </c>
-      <c r="G8" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>424</v>
-      </c>
-      <c r="E9" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="G9" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="I9" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="102" t="s">
-        <v>417</v>
-      </c>
-      <c r="G10" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="102" t="s">
-        <v>418</v>
-      </c>
-      <c r="I10" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>419</v>
-      </c>
-      <c r="E11" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>420</v>
-      </c>
-      <c r="G11" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="I11" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>422</v>
-      </c>
-      <c r="E12" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>423</v>
-      </c>
-      <c r="G12" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="I12" s="102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="n">
-        <v>76</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>424</v>
-      </c>
-      <c r="E13" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="G13" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="I13" s="102" t="n">
-        <v>1</v>
-      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7416,6 +7216,420 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="E90 C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="120.82995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="212.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="100" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I4" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="I5" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="I6" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="52" t="n">
+        <v>76</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="I13" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7428,75 +7642,75 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E90 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9514170040486"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="O1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7504,52 +7718,52 @@
       <c r="A2" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="L2" s="42" t="s">
+      <c r="K2" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="M2" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="O2" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="P2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="44" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7557,52 +7771,52 @@
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="L3" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="M3" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="N3" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="O3" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="44" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7625,91 +7839,91 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="E90 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="102.619433198381"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7720,48 +7934,48 @@
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="47" t="s">
+      <c r="H2" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="K2" s="46" t="s">
+      <c r="J2" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="49" t="n">
+      <c r="Q2" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="R2" s="50" t="n">
         <v>100</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="48"/>
+      <c r="T2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -7770,50 +7984,50 @@
       <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" s="49" t="n">
+      <c r="R3" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="49" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7824,50 +8038,50 @@
       <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="R4" s="49" t="n">
+      <c r="R4" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="49" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7878,55 +8092,55 @@
       <c r="B5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>244</v>
       </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46" t="s">
+        <v>245</v>
+      </c>
       <c r="G5" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K5" s="47" t="s">
+      <c r="J5" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5" s="47" t="s">
+      <c r="K5" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="48" t="s">
+      <c r="M5" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="Q5" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="S5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="U5" s="43"/>
+      <c r="T5" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="U5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -7935,54 +8149,54 @@
       <c r="B6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45" t="s">
-        <v>244</v>
+      <c r="C6" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="I6" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="M6" s="47" t="s">
+      <c r="K6" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q6" s="48" t="s">
+      <c r="M6" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="P6" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="R6" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="S6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="48"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -7991,52 +8205,52 @@
       <c r="B7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45" t="s">
-        <v>244</v>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>228</v>
+        <v>257</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="M7" s="47" t="s">
+      <c r="J7" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="48" t="s">
+      <c r="M7" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="R7" s="51" t="n">
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="R7" s="52" t="n">
         <v>23</v>
       </c>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="48"/>
+      <c r="T7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -8045,54 +8259,54 @@
       <c r="B8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45" t="s">
-        <v>244</v>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>228</v>
+        <v>260</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="M8" s="47" t="s">
+      <c r="J8" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="P8" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q8" s="48" t="s">
+      <c r="M8" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="R8" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="S8" s="48" t="s">
+      <c r="N8" s="48"/>
+      <c r="O8" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q8" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="S8" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="48"/>
+      <c r="T8" s="49"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8112,8 +8326,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E90 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8124,72 +8338,72 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="N1" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8197,47 +8411,47 @@
       <c r="A2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="L2" s="43" t="s">
+      <c r="I2" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43" t="n">
+      <c r="L2" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="n">
         <v>100</v>
       </c>
-      <c r="P2" s="43" t="n">
+      <c r="P2" s="44" t="n">
         <v>25</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8257,49 +8471,49 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="E90 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.8016194331984"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="128.542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="137.967611336032"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>268</v>
+      <c r="I1" s="40" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,23 +8523,23 @@
       <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -8334,23 +8548,23 @@
       <c r="B3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -8359,10 +8573,10 @@
       <c r="B4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -8371,11 +8585,11 @@
       <c r="F4" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -8384,23 +8598,23 @@
       <c r="B5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -8409,23 +8623,23 @@
       <c r="B6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -8434,23 +8648,23 @@
       <c r="B7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="43" t="s">
+      <c r="F7" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -8459,23 +8673,23 @@
       <c r="B8" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -8484,26 +8698,26 @@
       <c r="B9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="57"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="8"/>
@@ -8530,28 +8744,28 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="E90 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="58" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="58" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="58" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="58" width="87.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="58" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="58" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="58" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="58" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="58" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="58" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="58" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="58" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="58" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="58" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="58" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="58" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="93.4089068825911"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="99.085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="59" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="59" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="59" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="59" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="59" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8568,7 +8782,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8577,34 +8791,34 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -8613,7 +8827,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8624,47 +8838,47 @@
         <v>64</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="59" t="s">
+      <c r="H2" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="60" t="s">
+      <c r="K2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -8676,45 +8890,45 @@
       <c r="C3" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="59" t="s">
+      <c r="H3" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="60" t="s">
+      <c r="K3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -8726,45 +8940,45 @@
       <c r="C4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="60" t="s">
+      <c r="J4" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -8776,45 +8990,45 @@
       <c r="C5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="60" t="s">
+      <c r="H5" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O5" s="44"/>
+      <c r="P5" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -8826,45 +9040,45 @@
       <c r="C6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="60" t="s">
+      <c r="J6" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6" s="44"/>
+      <c r="P6" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -8876,45 +9090,45 @@
       <c r="C7" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="40" t="s">
+      <c r="F7" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="H7" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="60" t="s">
+      <c r="J7" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" s="44"/>
+      <c r="P7" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -8926,43 +9140,43 @@
       <c r="C8" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="L8" s="40"/>
+      <c r="F8" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="41"/>
       <c r="M8" s="32"/>
-      <c r="N8" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="60" t="s">
+      <c r="N8" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -8972,45 +9186,45 @@
         <v>84</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>294</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="60" t="s">
+      <c r="H9" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="44"/>
+      <c r="J9" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" s="44"/>
+      <c r="P9" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -9019,42 +9233,42 @@
       <c r="B10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="41" t="s">
-        <v>293</v>
+      <c r="E10" s="61"/>
+      <c r="F10" s="42" t="s">
+        <v>294</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="59" t="s">
+      <c r="H10" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60" t="s">
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -9063,42 +9277,42 @@
       <c r="B11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="41" t="s">
-        <v>293</v>
+      <c r="E11" s="61"/>
+      <c r="F11" s="42" t="s">
+        <v>294</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60" t="s">
+      <c r="H11" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O11" s="63"/>
+      <c r="P11" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9119,26 +9333,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E90 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9159,7 +9373,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -9171,25 +9385,25 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -9211,20 +9425,20 @@
       <c r="D2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="57" t="s">
         <v>304</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>180</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J2" s="31" t="n">
         <v>0.4</v>
@@ -9232,16 +9446,16 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
-      <c r="N2" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="O2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="O2" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9258,20 +9472,20 @@
       <c r="D3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="57" t="s">
         <v>304</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>180</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J3" s="31" t="n">
         <v>0.4</v>
@@ -9279,16 +9493,16 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
-      <c r="N3" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="O3" s="43" t="s">
+      <c r="N3" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9305,20 +9519,20 @@
       <c r="D4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" s="64" t="s">
+      <c r="E4" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>304</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>180</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J4" s="31" t="n">
         <v>0.1</v>
@@ -9326,16 +9540,16 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
-      <c r="N4" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="O4" s="43" t="s">
+      <c r="N4" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9352,20 +9566,20 @@
       <c r="D5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>309</v>
+      <c r="E5" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>310</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>159</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J5" s="31" t="n">
         <v>0.1</v>
@@ -9373,16 +9587,16 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
-      <c r="N5" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="O5" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9393,47 +9607,47 @@
       <c r="B6" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" s="54" t="s">
         <v>312</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>313</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67" t="s">
+      <c r="I6" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="M6" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="43" t="s">
+      <c r="L6" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="O6" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9456,24 +9670,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E90 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="83.5546558704453"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9492,7 +9706,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9501,158 +9715,158 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="61" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="n">
+      <c r="A2" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="I2" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="55"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="n">
+      <c r="A3" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="N3" s="56"/>
+      <c r="O3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" s="69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55" t="s">
+      <c r="F4" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="55"/>
-    </row>
-    <row r="4" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="55"/>
+      <c r="P4" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9672,20 +9886,20 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E90 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -9700,444 +9914,444 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="n">
+      <c r="A2" s="71" t="n">
         <v>40</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="43" t="n">
+      <c r="D2" s="64"/>
+      <c r="E2" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="71" t="n">
+        <v>41</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="71" t="n">
+        <v>42</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="71" t="n">
+        <v>43</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="64" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="71" t="n">
+        <v>44</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="71" t="n">
+        <v>46</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="44" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="n">
-        <v>41</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="43" t="s">
+      <c r="F7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="43" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="71" t="n">
+        <v>47</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G8" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="64" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="71" t="n">
+        <v>49</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="44" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70" t="n">
-        <v>42</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="43" t="s">
+      <c r="F10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="F4" s="43" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="71" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G11" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="71" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="71" t="n">
+        <v>53</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="71" t="n">
+        <v>54</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="64" t="n">
+        <v>28</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="71" t="n">
+        <v>55</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="44" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="70" t="n">
-        <v>43</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="63" t="n">
+      <c r="F15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="71" t="n">
+        <v>56</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="71" t="n">
+        <v>58</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="71" t="n">
+        <v>59</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="71" t="n">
+        <v>60</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="71" t="n">
+        <v>61</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="64" t="n">
         <v>28</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="E20" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="G5" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="70" t="n">
-        <v>44</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="43" t="s">
+      <c r="F20" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="F6" s="43" t="n">
+      <c r="G20" s="74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="71" t="n">
+        <v>62</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="n">
-        <v>46</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70" t="n">
-        <v>47</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="n">
-        <v>48</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="63" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="70" t="n">
-        <v>49</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="43" t="s">
+      <c r="G21" s="74" t="s">
         <v>339</v>
-      </c>
-      <c r="F10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="F11" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70" t="n">
-        <v>52</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="F12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70" t="n">
-        <v>53</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="F13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70" t="n">
-        <v>54</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="63" t="n">
-        <v>28</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70" t="n">
-        <v>55</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="F15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="70" t="n">
-        <v>56</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="F16" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="70" t="n">
-        <v>58</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="F17" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="70" t="n">
-        <v>59</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="F18" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="70" t="n">
-        <v>60</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="F19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="70" t="n">
-        <v>61</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="63" t="n">
-        <v>28</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="n">
-        <v>62</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="F21" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.0.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,14 +18,15 @@
     <sheet name="Survey" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Platformas" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Platformas Scoring" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Distribution" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Bonuses and Penalties" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Scoring" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Share of Empty" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Availability Combo" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Numero De Puertas" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Ejecucion Sombra" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Ejecucion Sombra Prerequisite" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Platformas Scoring Prereq" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Distribution" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Bonuses and Penalties" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Scoring" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Share of Empty" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Availability Combo" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Numero De Puertas" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Ejecucion Sombra" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Ejecucion Sombra Prerequisite" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
@@ -86,6 +87,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="427">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1886,13 +1888,10 @@
     <t xml:space="preserve">Bloques Colas 55%,Bloques Sabores 25%,Frentes Cattman,Acomodo por Bloques</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum</t>
+    <t xml:space="preserve">sum</t>
   </si>
   <si>
     <t xml:space="preserve">Primera posicion,Respeto,SOCI,Cap. Fria,Llenado 75%,Cattman Mercadeo,Precios en cooler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum</t>
   </si>
   <si>
     <t xml:space="preserve">Puerta Retornabilidad,Bonificacion Plataforma Hidratacion,Ejecucion Sombra</t>
@@ -2732,12 +2731,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2911,29 +2910,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:93"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="159.072874493927"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="160.570850202429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -2973,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -3002,7 +3001,7 @@
       <c r="L2" s="7"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -3026,7 +3025,7 @@
       <c r="K3" s="10"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3053,7 +3052,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3080,7 +3079,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3107,7 +3106,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3161,7 +3160,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3188,7 +3187,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3215,7 +3214,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3240,7 +3239,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3294,7 +3293,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3352,7 +3351,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3406,7 +3405,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3433,7 +3432,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3458,7 +3457,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3483,7 +3482,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3508,7 +3507,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3533,7 +3532,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3558,7 +3557,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3583,7 +3582,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3610,7 +3609,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3633,7 +3632,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3660,7 +3659,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3716,7 +3715,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3743,7 +3742,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -3766,7 +3765,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3793,7 +3792,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3822,7 +3821,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3880,7 +3879,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3909,7 +3908,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3963,7 +3962,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3992,7 +3991,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4112,7 +4111,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>39</v>
       </c>
@@ -4170,7 +4169,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>39</v>
       </c>
@@ -4197,7 +4196,7 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>39</v>
       </c>
@@ -4224,7 +4223,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>39</v>
       </c>
@@ -4251,7 +4250,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>40</v>
       </c>
@@ -4278,7 +4277,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>41</v>
       </c>
@@ -4305,7 +4304,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>42</v>
       </c>
@@ -4332,7 +4331,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>43</v>
       </c>
@@ -4359,7 +4358,7 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>44</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>45</v>
       </c>
@@ -4413,7 +4412,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>45</v>
       </c>
@@ -4440,7 +4439,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>45</v>
       </c>
@@ -4467,7 +4466,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>45</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>46</v>
       </c>
@@ -4521,7 +4520,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>47</v>
       </c>
@@ -4548,7 +4547,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>48</v>
       </c>
@@ -4575,7 +4574,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>49</v>
       </c>
@@ -4602,7 +4601,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>50</v>
       </c>
@@ -4629,7 +4628,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>51</v>
       </c>
@@ -4658,7 +4657,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>51</v>
       </c>
@@ -4687,7 +4686,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>52</v>
       </c>
@@ -4714,7 +4713,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>53</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>54</v>
       </c>
@@ -4768,7 +4767,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>55</v>
       </c>
@@ -4795,7 +4794,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>56</v>
       </c>
@@ -4822,7 +4821,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>57</v>
       </c>
@@ -4849,7 +4848,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>57</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>58</v>
       </c>
@@ -4903,7 +4902,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>59</v>
       </c>
@@ -4930,7 +4929,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>60</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>61</v>
       </c>
@@ -4984,7 +4983,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>62</v>
       </c>
@@ -5011,7 +5010,7 @@
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="30" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>63</v>
       </c>
@@ -5035,7 +5034,7 @@
       <c r="K77" s="29"/>
       <c r="AMJ77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>64</v>
       </c>
@@ -5058,7 +5057,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>65</v>
       </c>
@@ -5087,7 +5086,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>66</v>
       </c>
@@ -5116,7 +5115,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>67</v>
       </c>
@@ -5145,7 +5144,7 @@
       </c>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>68</v>
       </c>
@@ -5174,7 +5173,7 @@
       </c>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>69</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>70</v>
       </c>
@@ -5230,7 +5229,7 @@
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>71</v>
       </c>
@@ -5259,7 +5258,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>72</v>
       </c>
@@ -5288,7 +5287,7 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" s="35" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="35" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>73</v>
       </c>
@@ -5314,7 +5313,7 @@
       <c r="K87" s="19"/>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>74</v>
       </c>
@@ -5343,7 +5342,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>75</v>
       </c>
@@ -5372,7 +5371,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>76</v>
       </c>
@@ -5403,7 +5402,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>77</v>
       </c>
@@ -5428,7 +5427,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>78</v>
       </c>
@@ -5453,7 +5452,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
         <v>79</v>
       </c>
@@ -5475,7 +5474,13 @@
       <c r="K93" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K93"/>
+  <autoFilter ref="A1:K93">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Cattman Mercadeo"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -5495,23 +5500,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="E90 I1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="1021" min="9" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5522,22 +5524,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="76" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5547,309 +5537,53 @@
       <c r="B2" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>20</v>
+      <c r="C2" s="77" t="s">
+        <v>133</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>10</v>
+      <c r="C3" s="78" t="s">
+        <v>155</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B4" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>12</v>
+      <c r="C4" s="78" t="s">
+        <v>164</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>6</v>
+      <c r="C5" s="79" t="s">
+        <v>171</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="77" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5868,126 +5602,281 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="E90 E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="H1" s="83" t="s">
+      <c r="B5" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="n">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="85" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="n">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="57" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>354</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>353</v>
+      <c r="B12" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6006,23 +5895,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="69" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="0"/>
+      <c r="I2" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="69" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E90 A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6204,29 +6231,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="E90 G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.6315789473684"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="116.761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="117.82995951417"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -6492,7 +6519,7 @@
         <v>381</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -6520,10 +6547,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6551,10 +6578,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6582,10 +6609,10 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6611,10 +6638,10 @@
         <v>14</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -6640,10 +6667,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -6667,140 +6694,16 @@
         <v>14</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I14" s="93"/>
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
       <c r="M14" s="93"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="E90 F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="95" t="n">
-        <v>35</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="97" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="M2" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="O2" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="99" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6818,22 +6721,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="95" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="O2" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E90 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.7044534412956"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="68.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6848,7 +6875,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6857,25 +6884,25 @@
         <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6901,22 +6928,22 @@
         <v>130</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>227</v>
@@ -6942,7 +6969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6950,15 +6977,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E90 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -7004,19 +7031,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="77" t="s">
         <v>405</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>406</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>228</v>
       </c>
       <c r="H2" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="77" t="s">
         <v>407</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7038,7 +7065,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E90 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7046,11 +7073,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7062,7 +7089,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D1" s="100"/>
       <c r="E1" s="102"/>
@@ -7079,7 +7106,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -7220,7 +7247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7228,20 +7255,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="E90 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="120.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="121.902834008097"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7253,25 +7280,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="E1" s="102" t="s">
         <v>412</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>413</v>
       </c>
       <c r="F1" s="100" t="s">
         <v>298</v>
       </c>
       <c r="G1" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1" s="100" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="102" t="s">
         <v>415</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,19 +7312,19 @@
         <v>209</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
@@ -7314,19 +7341,19 @@
         <v>209</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>1</v>
@@ -7343,13 +7370,13 @@
         <v>209</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>3</v>
@@ -7372,19 +7399,19 @@
         <v>209</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -7401,19 +7428,19 @@
         <v>209</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
@@ -7430,19 +7457,19 @@
         <v>209</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I7" s="36" t="n">
         <v>1</v>
@@ -7459,13 +7486,13 @@
         <v>209</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E8" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
@@ -7488,19 +7515,19 @@
         <v>209</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
@@ -7517,19 +7544,19 @@
         <v>209</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E10" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -7546,19 +7573,19 @@
         <v>209</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I11" s="36" t="n">
         <v>1</v>
@@ -7575,13 +7602,13 @@
         <v>209</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G12" s="36" t="n">
         <v>3</v>
@@ -7604,19 +7631,19 @@
         <v>209</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I13" s="36" t="n">
         <v>1</v>
@@ -7642,20 +7669,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E90 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7839,27 +7866,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="E90 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="102.619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="103.582995951417"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="56.8785425101215"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8327,7 +8354,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E90 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8338,14 +8365,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="46.919028340081"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8472,17 +8499,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="E90 C7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.8016194331984"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.6558704453441"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="137.967611336032"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="139.255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8744,20 +8771,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="E90 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="93.4089068825911"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="99.085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="99.9433198380567"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9333,26 +9360,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E90 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9670,24 +9697,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E90 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="83.5546558704453"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="84.3036437246964"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9886,20 +9913,20 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="E90 A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
